--- a/utils/localisation_script/excel_to_json/te/a.xlsx
+++ b/utils/localisation_script/excel_to_json/te/a.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umair.manzoor/Projects/Open-Speech-EkStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/te/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreejithv/TW/projects/ekStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/te/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E001DAF2-A789-7548-A5C9-67A969E7FB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B389307-F58E-7F43-A11D-0F1CBB3D1D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="2320" yWindow="2560" windowWidth="29640" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mar 25th content" sheetId="12" r:id="rId1"/>
@@ -610,8 +610,8 @@
   </sheetPr>
   <dimension ref="A1:Z957"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
